--- a/utilities/Excel_Sheets/Products/EPL.xlsx
+++ b/utilities/Excel_Sheets/Products/EPL.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="47">
   <si>
     <t>State</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Officer_TurnOver_Rate</t>
+  </si>
+  <si>
+    <t>Engineering and Management Services</t>
   </si>
 </sst>
 </file>
@@ -597,12 +600,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,7 +613,7 @@
     <col min="1" max="1" width="80.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
     <col min="7" max="10" width="10" style="1" customWidth="1"/>
@@ -684,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -693,25 +696,25 @@
         <v>8</v>
       </c>
       <c r="G2" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L2" s="9">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M2" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N2" s="9">
         <v>0</v>
@@ -743,162 +746,162 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11">
         <v>43221</v>
       </c>
       <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7">
+        <v>40</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>550000</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43221</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>5</v>
+      </c>
+      <c r="L6" s="15">
+        <v>550000</v>
+      </c>
+      <c r="M6" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="M4" s="9">
-        <v>15</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11">
-        <v>43221</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>20</v>
-      </c>
-      <c r="L6" s="9">
-        <v>15000000</v>
-      </c>
-      <c r="M6" s="9">
-        <v>10</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="12"/>
+    </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13">
         <v>43221</v>
       </c>
       <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="12">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>10</v>
-      </c>
       <c r="L8" s="15">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M8" s="15">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N8" s="15">
         <v>0</v>
@@ -930,13 +933,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13">
         <v>43221</v>
       </c>
       <c r="C10" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>13</v>
@@ -945,117 +948,117 @@
         <v>3</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="12">
+        <v>40</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>5</v>
+      </c>
+      <c r="L10" s="15">
+        <v>550000</v>
+      </c>
+      <c r="M10" s="15">
+        <v>4</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="17">
+        <v>43221</v>
+      </c>
+      <c r="C12" s="18">
+        <v>14</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="16">
+        <v>40</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>5</v>
+      </c>
+      <c r="L12" s="19">
+        <v>550000</v>
+      </c>
+      <c r="M12" s="19">
         <v>2</v>
       </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>15</v>
-      </c>
-      <c r="L10" s="15">
-        <v>15000000</v>
-      </c>
-      <c r="M10" s="15">
-        <v>20</v>
-      </c>
-      <c r="N10" s="15">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="13">
-        <v>43221</v>
-      </c>
-      <c r="C12" s="14">
-        <v>5</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="12">
-        <v>2</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>20</v>
-      </c>
-      <c r="L12" s="15">
-        <v>15000000</v>
-      </c>
-      <c r="M12" s="15">
-        <v>15</v>
-      </c>
-      <c r="N12" s="15">
-        <v>0</v>
-      </c>
-      <c r="O12" s="15">
-        <v>0</v>
-      </c>
-      <c r="P12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="N12" s="19">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="16"/>
+    </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="17">
         <v>43221</v>
       </c>
       <c r="C14" s="18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>13</v>
@@ -1067,31 +1070,31 @@
         <v>8</v>
       </c>
       <c r="G14" s="16">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L14" s="19">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M14" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="19">
         <v>0</v>
       </c>
       <c r="O14" s="19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P14" s="16">
         <v>0</v>
@@ -1117,13 +1120,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="17">
         <v>43221</v>
       </c>
       <c r="C16" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>13</v>
@@ -1132,31 +1135,31 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G16" s="16">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L16" s="19">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M16" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O16" s="19">
         <v>0</v>
@@ -1185,13 +1188,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18" s="17">
         <v>43221</v>
       </c>
       <c r="C18" s="18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>13</v>
@@ -1203,28 +1206,28 @@
         <v>34</v>
       </c>
       <c r="G18" s="16">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L18" s="19">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M18" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O18" s="19">
         <v>0</v>
@@ -1253,13 +1256,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" s="17">
         <v>43221</v>
       </c>
       <c r="C20" s="18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>13</v>
@@ -1268,34 +1271,34 @@
         <v>3</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G20" s="16">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L20" s="19">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M20" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="19">
         <v>0</v>
       </c>
       <c r="O20" s="19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P20" s="16">
         <v>0</v>
@@ -1321,13 +1324,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22" s="17">
         <v>43221</v>
       </c>
       <c r="C22" s="18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>13</v>
@@ -1336,31 +1339,31 @@
         <v>3</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" s="16">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L22" s="19">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M22" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O22" s="19">
         <v>0</v>
@@ -1369,84 +1372,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="16"/>
-    </row>
+    <row r="23" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="17">
-        <v>43221</v>
-      </c>
-      <c r="C24" s="18">
-        <v>14</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="16">
-        <v>12</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="16">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19">
-        <v>20</v>
-      </c>
-      <c r="L24" s="19">
-        <v>15000000</v>
-      </c>
-      <c r="M24" s="19">
-        <v>0</v>
-      </c>
-      <c r="N24" s="19">
-        <v>0</v>
-      </c>
-      <c r="O24" s="19">
-        <v>15</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="10">
+        <v>43221</v>
+      </c>
+      <c r="C24" s="5">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4">
+        <v>40</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>5</v>
+      </c>
+      <c r="L24" s="6">
+        <v>550000</v>
+      </c>
+      <c r="M24" s="6">
+        <v>2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="4"/>
+    </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10">
         <v>43221</v>
       </c>
       <c r="C26" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -1458,31 +1461,31 @@
         <v>8</v>
       </c>
       <c r="G26" s="4">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L26" s="6">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M26" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N26" s="6">
         <v>0</v>
       </c>
       <c r="O26" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P26" s="4">
         <v>0</v>
@@ -1508,13 +1511,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10">
         <v>43221</v>
       </c>
       <c r="C28" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -1523,31 +1526,31 @@
         <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L28" s="6">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M28" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O28" s="6">
         <v>0</v>
@@ -1576,13 +1579,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B30" s="10">
         <v>43221</v>
       </c>
       <c r="C30" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -1591,31 +1594,31 @@
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="4">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L30" s="6">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O30" s="6">
         <v>0</v>
@@ -1644,13 +1647,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" s="10">
         <v>43221</v>
       </c>
       <c r="C32" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -1659,34 +1662,34 @@
         <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L32" s="6">
-        <v>15000000</v>
+        <v>550000</v>
       </c>
       <c r="M32" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="6">
         <v>0</v>
       </c>
       <c r="O32" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P32" s="4">
         <v>0</v>
@@ -1712,13 +1715,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B34" s="10">
         <v>43221</v>
       </c>
       <c r="C34" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -1727,106 +1730,106 @@
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="4">
         <v>40</v>
       </c>
-      <c r="G34" s="4">
-        <v>12</v>
-      </c>
       <c r="H34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="6">
+        <v>5</v>
+      </c>
+      <c r="L34" s="6">
+        <v>550000</v>
+      </c>
+      <c r="M34" s="6">
+        <v>4</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="6">
-        <v>15000000</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>10</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="10">
-        <v>43221</v>
-      </c>
-      <c r="C36" s="5">
-        <v>18</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="4">
-        <v>12</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="6">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6">
-        <v>15000000</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>20</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
+      <c r="B36" s="11">
+        <v>43221</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="7">
+        <v>40</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>5</v>
+      </c>
+      <c r="L36" s="9">
+        <v>550000</v>
+      </c>
+      <c r="M36" s="9">
+        <v>2</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/utilities/Excel_Sheets/Products/EPL.xlsx
+++ b/utilities/Excel_Sheets/Products/EPL.xlsx
@@ -602,10 +602,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>550000</v>
       </c>
       <c r="M2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="9">
         <v>0</v>

--- a/utilities/Excel_Sheets/Products/EPL.xlsx
+++ b/utilities/Excel_Sheets/Products/EPL.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression_Tests!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="55">
   <si>
     <t>State</t>
   </si>
@@ -171,6 +171,30 @@
   </si>
   <si>
     <t>Engineering and Management Services</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Encino</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Carson City</t>
+  </si>
+  <si>
+    <t>Bakersfield</t>
+  </si>
+  <si>
+    <t>Computer Related Services</t>
   </si>
 </sst>
 </file>
@@ -600,12 +624,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,17 +640,19 @@
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -646,87 +672,100 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11">
-        <v>43221</v>
+        <f ca="1">TODAY()</f>
+        <v>43361</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="7">
+        <v>89403</v>
+      </c>
+      <c r="I2" s="7">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="N2" s="9">
         <v>550000</v>
       </c>
-      <c r="M2" s="9">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
       <c r="O2" s="9">
         <v>0</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="11"/>
       <c r="C3" s="8"/>
@@ -737,14 +776,16 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -755,165 +796,185 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7">
+        <v>93301</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>5</v>
+      </c>
+      <c r="N4" s="9">
+        <v>550000</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11">
+        <v>43221</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="7">
+        <v>94151</v>
+      </c>
+      <c r="I6" s="7">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>5</v>
+      </c>
+      <c r="N6" s="9">
+        <v>550000</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43221</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="12">
+        <v>92126</v>
+      </c>
+      <c r="I8" s="12">
         <v>40</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
         <v>5</v>
       </c>
-      <c r="L4" s="9">
+      <c r="N8" s="15">
         <v>550000</v>
       </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13">
-        <v>43221</v>
-      </c>
-      <c r="C6" s="14">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="12">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>5</v>
-      </c>
-      <c r="L6" s="15">
-        <v>550000</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="O8" s="15">
         <v>2</v>
       </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13">
-        <v>43221</v>
-      </c>
-      <c r="C8" s="14">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="12">
-        <v>40</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>5</v>
-      </c>
-      <c r="L8" s="15">
-        <v>550000</v>
-      </c>
-      <c r="M8" s="15">
-        <v>3</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -924,141 +985,149 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13">
+        <v>43221</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
+        <v>40</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>5</v>
+      </c>
+      <c r="N10" s="15">
+        <v>550000</v>
+      </c>
+      <c r="O10" s="15">
+        <v>3</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13">
-        <v>43221</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B12" s="13">
+        <v>43221</v>
+      </c>
+      <c r="C12" s="14">
         <v>5</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>40</v>
       </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
         <v>5</v>
       </c>
-      <c r="L10" s="15">
+      <c r="N12" s="15">
         <v>550000</v>
       </c>
-      <c r="M10" s="15">
+      <c r="O12" s="15">
         <v>4</v>
       </c>
-      <c r="N10" s="15">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="17">
-        <v>43221</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B14" s="17">
+        <v>43221</v>
+      </c>
+      <c r="C14" s="18">
         <v>14</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="16">
-        <v>40</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
-        <v>5</v>
-      </c>
-      <c r="L12" s="19">
-        <v>550000</v>
-      </c>
-      <c r="M12" s="19">
-        <v>2</v>
-      </c>
-      <c r="N12" s="19">
-        <v>0</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="17">
-        <v>43221</v>
-      </c>
-      <c r="C14" s="18">
-        <v>9</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>13</v>
@@ -1069,38 +1138,44 @@
       <c r="F14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="16">
+        <v>91346</v>
+      </c>
+      <c r="I14" s="16">
         <v>40</v>
       </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
       <c r="J14" s="16">
         <v>0</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
         <v>5</v>
       </c>
-      <c r="L14" s="19">
+      <c r="N14" s="19">
         <v>550000</v>
       </c>
-      <c r="M14" s="19">
-        <v>3</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0</v>
-      </c>
       <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -1111,22 +1186,24 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="17">
         <v>43221</v>
       </c>
       <c r="C16" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>13</v>
@@ -1135,40 +1212,46 @@
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="16">
+        <v>8</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="16">
+        <v>91346</v>
+      </c>
+      <c r="I16" s="16">
         <v>40</v>
       </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
       <c r="J16" s="16">
         <v>0</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
         <v>5</v>
       </c>
-      <c r="L16" s="19">
+      <c r="N16" s="19">
         <v>550000</v>
       </c>
-      <c r="M16" s="19">
-        <v>4</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0</v>
-      </c>
       <c r="O16" s="19">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -1179,22 +1262,24 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18" s="17">
         <v>43221</v>
       </c>
       <c r="C18" s="18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>13</v>
@@ -1205,38 +1290,40 @@
       <c r="F18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
         <v>40</v>
       </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0</v>
-      </c>
       <c r="J18" s="16">
         <v>0</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
         <v>5</v>
       </c>
-      <c r="L18" s="19">
+      <c r="N18" s="19">
         <v>550000</v>
       </c>
-      <c r="M18" s="19">
-        <v>2</v>
-      </c>
-      <c r="N18" s="19">
-        <v>0</v>
-      </c>
       <c r="O18" s="19">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -1247,22 +1334,24 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="17">
         <v>43221</v>
       </c>
       <c r="C20" s="18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>13</v>
@@ -1271,40 +1360,42 @@
         <v>3</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="16">
+        <v>34</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
         <v>40</v>
       </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
       <c r="J20" s="16">
         <v>0</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
         <v>5</v>
       </c>
-      <c r="L20" s="19">
+      <c r="N20" s="19">
         <v>550000</v>
       </c>
-      <c r="M20" s="19">
-        <v>3</v>
-      </c>
-      <c r="N20" s="19">
-        <v>0</v>
-      </c>
       <c r="O20" s="19">
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -1315,141 +1406,149 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="17">
+        <v>43221</v>
+      </c>
+      <c r="C22" s="18">
+        <v>9</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16">
+        <v>40</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
+        <v>5</v>
+      </c>
+      <c r="N22" s="19">
+        <v>550000</v>
+      </c>
+      <c r="O22" s="19">
+        <v>3</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="17">
-        <v>43221</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="B24" s="17">
+        <v>43221</v>
+      </c>
+      <c r="C24" s="18">
         <v>14</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="D24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16">
         <v>40</v>
       </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="19">
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19">
         <v>5</v>
       </c>
-      <c r="L22" s="19">
+      <c r="N24" s="19">
         <v>550000</v>
       </c>
-      <c r="M22" s="19">
+      <c r="O24" s="19">
         <v>4</v>
       </c>
-      <c r="N22" s="19">
-        <v>0</v>
-      </c>
-      <c r="O22" s="19">
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="P24" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="10">
-        <v>43221</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B26" s="10">
+        <v>43221</v>
+      </c>
+      <c r="C26" s="5">
         <v>18</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="4">
-        <v>40</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>5</v>
-      </c>
-      <c r="L24" s="6">
-        <v>550000</v>
-      </c>
-      <c r="M24" s="6">
-        <v>2</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10">
-        <v>43221</v>
-      </c>
-      <c r="C26" s="5">
-        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -1460,38 +1559,44 @@
       <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="4">
+        <v>91346</v>
+      </c>
+      <c r="I26" s="4">
         <v>40</v>
       </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
       <c r="J26" s="4">
         <v>0</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
         <v>5</v>
       </c>
-      <c r="L26" s="6">
+      <c r="N26" s="6">
         <v>550000</v>
       </c>
-      <c r="M26" s="6">
-        <v>3</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
       <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="10"/>
       <c r="C27" s="5"/>
@@ -1502,22 +1607,24 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10">
         <v>43221</v>
       </c>
       <c r="C28" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -1526,40 +1633,46 @@
         <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="4">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="4">
+        <v>91346</v>
+      </c>
+      <c r="I28" s="4">
         <v>40</v>
       </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
       <c r="J28" s="4">
         <v>0</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
         <v>5</v>
       </c>
-      <c r="L28" s="6">
+      <c r="N28" s="6">
         <v>550000</v>
       </c>
-      <c r="M28" s="6">
-        <v>4</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
       <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="10"/>
       <c r="C29" s="5"/>
@@ -1570,22 +1683,24 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" s="10">
         <v>43221</v>
       </c>
       <c r="C30" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -1594,40 +1709,42 @@
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="4">
+        <v>35</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
         <v>40</v>
       </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
       <c r="J30" s="4">
         <v>0</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
         <v>5</v>
       </c>
-      <c r="L30" s="6">
+      <c r="N30" s="6">
         <v>550000</v>
       </c>
-      <c r="M30" s="6">
-        <v>2</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
       <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="10"/>
       <c r="C31" s="5"/>
@@ -1638,22 +1755,24 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10">
         <v>43221</v>
       </c>
       <c r="C32" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -1662,40 +1781,42 @@
         <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
         <v>40</v>
       </c>
-      <c r="G32" s="4">
-        <v>40</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
       <c r="J32" s="4">
         <v>0</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
         <v>5</v>
       </c>
-      <c r="L32" s="6">
+      <c r="N32" s="6">
         <v>550000</v>
       </c>
-      <c r="M32" s="6">
-        <v>3</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
       <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="10"/>
       <c r="C33" s="5"/>
@@ -1706,133 +1827,213 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="10">
+        <v>43221</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <v>40</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>5</v>
+      </c>
+      <c r="N34" s="6">
+        <v>550000</v>
+      </c>
+      <c r="O34" s="6">
+        <v>3</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
-        <v>43221</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B36" s="10">
+        <v>43221</v>
+      </c>
+      <c r="C36" s="5">
         <v>18</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
         <v>40</v>
       </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
         <v>5</v>
       </c>
-      <c r="L34" s="6">
+      <c r="N36" s="6">
         <v>550000</v>
       </c>
-      <c r="M34" s="6">
+      <c r="O36" s="6">
         <v>4</v>
       </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="11">
-        <v>43221</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="B38" s="11">
+        <v>43221</v>
+      </c>
+      <c r="C38" s="8">
         <v>2</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
         <v>40</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
         <v>5</v>
       </c>
-      <c r="L36" s="9">
+      <c r="N38" s="9">
         <v>550000</v>
       </c>
-      <c r="M36" s="9">
+      <c r="O38" s="9">
         <v>2</v>
       </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="7"/>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1842,10 +2043,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452B2723-EEFA-41EA-AB9A-CAFF2283A48F}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
